--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,60 +40,57 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -115,106 +112,121 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>nice</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
+    <t>friends</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>giving</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>corona</t>
@@ -575,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -744,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8082191780821918</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C5">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,16 +877,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
         <v>21</v>
@@ -962,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5882352941176471</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5641025641025641</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.559322033898305</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5406976744186046</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C13">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D13">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5343915343915344</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7735849056603774</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.525</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4899328859060403</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C16">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4363636363636363</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1406,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4133333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1456,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.375</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,13 +1506,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3636363636363636</v>
+        <v>0.3</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1512,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7441860465116279</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,13 +1556,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1562,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7407407407407407</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,13 +1606,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2936507936507937</v>
+        <v>0.1635388739946381</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1612,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.696969696969697</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,13 +1656,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1662198391420912</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C23">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1662,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6875</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,37 +1706,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07666666666666666</v>
+        <v>0.01482436351917499</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>277</v>
+        <v>3057</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L24">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1736,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1744,87 +1756,63 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01160915833602064</v>
+        <v>0.01169317118802619</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F25">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3065</v>
+        <v>2113</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K25">
-        <v>0.6150627615062761</v>
-      </c>
-      <c r="L25">
-        <v>147</v>
-      </c>
-      <c r="M25">
-        <v>147</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.01122544434050514</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>29</v>
-      </c>
-      <c r="E26">
-        <v>0.17</v>
-      </c>
-      <c r="F26">
-        <v>0.83</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2114</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K26">
-        <v>0.6101694915254238</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L26">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="M26">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1836,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1862,21 +1850,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1888,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1914,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5692307692307692</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1940,47 +1928,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L31">
+        <v>55</v>
+      </c>
+      <c r="M31">
+        <v>55</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>39</v>
-      </c>
-      <c r="M31">
-        <v>39</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5393258426966292</v>
+        <v>0.58</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1992,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.4222222222222222</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2018,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.392156862745098</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2044,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.3461538461538461</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2070,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.3150684931506849</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2096,33 +2084,163 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K37">
-        <v>0.008788449466415568</v>
-      </c>
-      <c r="L37">
-        <v>28</v>
-      </c>
-      <c r="M37">
-        <v>43</v>
-      </c>
-      <c r="N37">
-        <v>0.65</v>
-      </c>
-      <c r="O37">
-        <v>0.35</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>3158</v>
+      <c r="K38">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L40">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K41">
+        <v>0.296875</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42">
+        <v>0.01066499372647428</v>
+      </c>
+      <c r="L42">
+        <v>34</v>
+      </c>
+      <c r="M42">
+        <v>47</v>
+      </c>
+      <c r="N42">
+        <v>0.72</v>
+      </c>
+      <c r="O42">
+        <v>0.28</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3154</v>
       </c>
     </row>
   </sheetData>
